--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120619-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120619-2.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2649,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2839,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3677,12 +3677,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3753,12 +3753,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3867,12 +3867,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3905,12 +3905,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4247,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4665,12 +4665,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6341,12 +6341,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7021,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7095,12 +7095,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7825,12 +7825,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7863,12 +7863,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7977,12 +7977,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8243,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8357,12 +8357,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8627,12 +8627,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9193,12 +9193,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9839,12 +9839,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9877,12 +9877,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10181,12 +10181,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10257,12 +10257,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10371,12 +10371,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10447,12 +10447,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10865,12 +10865,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11017,12 +11017,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11397,12 +11397,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11933,12 +11933,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12503,12 +12503,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12617,12 +12617,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12769,12 +12769,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13841,12 +13841,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14069,12 +14069,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14259,12 +14259,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14449,12 +14449,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14525,12 +14525,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14715,12 +14715,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15517,12 +15517,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15555,12 +15555,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15821,12 +15821,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16201,12 +16201,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16277,12 +16277,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16315,12 +16315,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16505,12 +16505,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16657,12 +16657,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16733,12 +16733,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17379,12 +17379,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17607,12 +17607,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17645,12 +17645,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17987,12 +17987,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18367,12 +18367,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18443,12 +18443,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18595,12 +18595,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19017,12 +19017,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19321,12 +19321,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19511,12 +19511,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19587,12 +19587,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19777,12 +19777,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20161,12 +20161,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20659,12 +20659,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
